--- a/Save/Test Cases/Test_Case_Simple.xlsx
+++ b/Save/Test Cases/Test_Case_Simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -235,8 +235,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,7 +305,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="65">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -327,6 +335,10 @@
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -355,6 +367,10 @@
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -685,14 +701,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="2" max="2" width="203.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
